--- a/output/ejecucion_1/results/base1_ci_results_test.xlsx
+++ b/output/ejecucion_1/results/base1_ci_results_test.xlsx
@@ -522,7 +522,7 @@
         <v>0.535</v>
       </c>
       <c r="D2">
-        <v>0.6840000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E2">
         <v>0.093</v>
@@ -557,7 +557,7 @@
         <v>0.572</v>
       </c>
       <c r="D3">
-        <v>0.6840000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E3">
         <v>0.137</v>
@@ -592,7 +592,7 @@
         <v>0.573</v>
       </c>
       <c r="D4">
-        <v>0.006</v>
+        <v>0.264</v>
       </c>
       <c r="E4">
         <v>0.032</v>
@@ -627,7 +627,7 @@
         <v>0.574</v>
       </c>
       <c r="D5">
-        <v>0.629</v>
+        <v>0.538</v>
       </c>
       <c r="E5">
         <v>0.08799999999999999</v>
@@ -662,7 +662,7 @@
         <v>0.466</v>
       </c>
       <c r="D6">
-        <v>0.606</v>
+        <v>0.497</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.582</v>
       </c>
       <c r="D7">
-        <v>0.107</v>
+        <v>0.314</v>
       </c>
       <c r="E7">
         <v>0.045</v>
@@ -732,7 +732,7 @@
         <v>0.582</v>
       </c>
       <c r="D8">
-        <v>0.122</v>
+        <v>0.32</v>
       </c>
       <c r="E8">
         <v>0.037</v>
@@ -767,7 +767,7 @@
         <v>0.586</v>
       </c>
       <c r="D9">
-        <v>0.023</v>
+        <v>0.271</v>
       </c>
       <c r="E9">
         <v>0.004</v>
@@ -802,7 +802,7 @@
         <v>0.466</v>
       </c>
       <c r="D10">
-        <v>0.606</v>
+        <v>0.497</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0.582</v>
       </c>
       <c r="D11">
-        <v>0.102</v>
+        <v>0.311</v>
       </c>
       <c r="E11">
         <v>0.039</v>
@@ -872,7 +872,7 @@
         <v>0.582</v>
       </c>
       <c r="D12">
-        <v>0.122</v>
+        <v>0.32</v>
       </c>
       <c r="E12">
         <v>0.037</v>
@@ -907,7 +907,7 @@
         <v>0.587</v>
       </c>
       <c r="D13">
-        <v>0.023</v>
+        <v>0.271</v>
       </c>
       <c r="E13">
         <v>0.004</v>
@@ -942,7 +942,7 @@
         <v>0.466</v>
       </c>
       <c r="D14">
-        <v>0.606</v>
+        <v>0.497</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0.582</v>
       </c>
       <c r="D15">
-        <v>0.107</v>
+        <v>0.314</v>
       </c>
       <c r="E15">
         <v>0.045</v>
@@ -1012,7 +1012,7 @@
         <v>0.582</v>
       </c>
       <c r="D16">
-        <v>0.122</v>
+        <v>0.32</v>
       </c>
       <c r="E16">
         <v>0.037</v>
@@ -1047,7 +1047,7 @@
         <v>0.586</v>
       </c>
       <c r="D17">
-        <v>0.023</v>
+        <v>0.271</v>
       </c>
       <c r="E17">
         <v>0.004</v>
@@ -1079,10 +1079,10 @@
         <v>0.674</v>
       </c>
       <c r="C18">
-        <v>0.669</v>
+        <v>0.67</v>
       </c>
       <c r="D18">
-        <v>0.765</v>
+        <v>0.616</v>
       </c>
       <c r="E18">
         <v>0.246</v>
@@ -1117,7 +1117,7 @@
         <v>0.658</v>
       </c>
       <c r="D19">
-        <v>0.758</v>
+        <v>0.629</v>
       </c>
       <c r="E19">
         <v>0.263</v>
@@ -1152,7 +1152,7 @@
         <v>0.666</v>
       </c>
       <c r="D20">
-        <v>0.752</v>
+        <v>0.617</v>
       </c>
       <c r="E20">
         <v>0.239</v>
@@ -1187,7 +1187,7 @@
         <v>0.656</v>
       </c>
       <c r="D21">
-        <v>0.737</v>
+        <v>0.61</v>
       </c>
       <c r="E21">
         <v>0.222</v>
@@ -1222,7 +1222,7 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="D22">
-        <v>0.782</v>
+        <v>0.626</v>
       </c>
       <c r="E22">
         <v>0.277</v>
@@ -1257,7 +1257,7 @@
         <v>0.66</v>
       </c>
       <c r="D23">
-        <v>0.762</v>
+        <v>0.618</v>
       </c>
       <c r="E23">
         <v>0.246</v>
@@ -1292,7 +1292,7 @@
         <v>0.662</v>
       </c>
       <c r="D24">
-        <v>0.761</v>
+        <v>0.615</v>
       </c>
       <c r="E24">
         <v>0.241</v>
@@ -1327,7 +1327,7 @@
         <v>0.671</v>
       </c>
       <c r="D25">
-        <v>0.744</v>
+        <v>0.613</v>
       </c>
       <c r="E25">
         <v>0.228</v>
